--- a/part2_exploratory_analysis/summary stats.xlsx
+++ b/part2_exploratory_analysis/summary stats.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuakaplan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuakaplan/50-percent-Chance-of-Awesome/part2_exploratory_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="560" windowWidth="31600" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,11 +199,11 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,67 +503,67 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="O3" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="2"/>
+      <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -588,19 +588,19 @@
         <v>2004</v>
       </c>
       <c r="Q5">
-        <v>4992</v>
+        <v>4752</v>
       </c>
       <c r="R5" t="s">
         <v>28</v>
       </c>
       <c r="S5">
-        <v>13540</v>
+        <v>13239</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>12465</v>
+        <v>11776</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -626,19 +626,19 @@
         <v>2006</v>
       </c>
       <c r="Q6">
-        <v>5093</v>
+        <v>4688</v>
       </c>
       <c r="R6" t="s">
         <v>29</v>
       </c>
       <c r="S6">
-        <v>15873</v>
+        <v>193</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
       <c r="U6">
-        <v>18024</v>
+        <v>17450</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -658,13 +658,13 @@
         <v>2008</v>
       </c>
       <c r="Q7">
-        <v>4853</v>
+        <v>4705</v>
       </c>
       <c r="R7" t="s">
         <v>30</v>
       </c>
       <c r="S7">
-        <v>1076</v>
+        <v>15794</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -674,22 +674,22 @@
       <c r="B8">
         <v>6184</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P8">
         <v>2010</v>
       </c>
       <c r="Q8">
-        <v>5477</v>
-      </c>
-      <c r="T8" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -710,13 +710,13 @@
         <v>2012</v>
       </c>
       <c r="Q9">
-        <v>5136</v>
+        <v>5042</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>14258</v>
+        <v>13608</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -736,70 +736,70 @@
         <v>2014</v>
       </c>
       <c r="Q10">
-        <v>4938</v>
+        <v>4798</v>
       </c>
       <c r="T10">
         <v>1</v>
       </c>
       <c r="U10">
-        <v>16231</v>
+        <v>15618</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="U12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="V12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13">
@@ -849,7 +849,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -899,7 +899,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15">
@@ -949,7 +949,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16">
@@ -1002,7 +1002,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17">
@@ -1055,7 +1055,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18">
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19">
@@ -1155,17 +1155,17 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="O21" s="4" t="s">
         <v>2</v>
       </c>
@@ -1178,40 +1178,40 @@
       <c r="V21" s="4"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="U22" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1304,10 +1304,10 @@
       <c r="E25">
         <v>608</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P25">
@@ -1322,10 +1322,10 @@
       <c r="S25">
         <v>437</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="T25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="U25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1382,55 +1382,55 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="P29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="R29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="S29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="T29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="U29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V29" s="2" t="s">
+      <c r="V29" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/part2_exploratory_analysis/summary stats.xlsx
+++ b/part2_exploratory_analysis/summary stats.xlsx
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,7 +632,7 @@
         <v>29</v>
       </c>
       <c r="S6">
-        <v>193</v>
+        <v>15794</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -664,7 +664,7 @@
         <v>30</v>
       </c>
       <c r="S7">
-        <v>15794</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
